--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/web-app/bcf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3124F5B-56A7-0A4C-8288-F15E71C0240D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="25875" windowHeight="10545"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,23 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Michael Wang</author>
     <author>ywu</author>
@@ -37,7 +49,7 @@
     <author>A Elgowainy</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="1" shapeId="0">
+    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="2" shapeId="0">
+    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="3" shapeId="0">
+    <comment ref="A63" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="4" shapeId="0">
+    <comment ref="B65" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="4" shapeId="0">
+    <comment ref="B66" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="3" shapeId="0">
+    <comment ref="D66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="3" shapeId="0">
+    <comment ref="F66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="3" shapeId="0">
+    <comment ref="G66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="3" shapeId="0">
+    <comment ref="I66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="4" shapeId="0">
+    <comment ref="B67" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="3" shapeId="0">
+    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="3" shapeId="0">
+    <comment ref="F67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G67" authorId="3" shapeId="0">
+    <comment ref="G67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="3" shapeId="0">
+    <comment ref="I67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="4" shapeId="0">
+    <comment ref="B68" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="3" shapeId="0">
+    <comment ref="D68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="3" shapeId="0">
+    <comment ref="F68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G68" authorId="3" shapeId="0">
+    <comment ref="G68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="3" shapeId="0">
+    <comment ref="I68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="4" shapeId="0">
+    <comment ref="B69" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="3" shapeId="0">
+    <comment ref="D69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="3" shapeId="0">
+    <comment ref="F69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -545,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="3" shapeId="0">
+    <comment ref="G69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -558,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="3" shapeId="0">
+    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="4" shapeId="0">
+    <comment ref="B70" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0">
+    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="3" shapeId="0">
+    <comment ref="F70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="3" shapeId="0">
+    <comment ref="G70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="3" shapeId="0">
+    <comment ref="I70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="4" shapeId="0">
+    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
       <text>
         <r>
           <rPr>
@@ -671,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D71" authorId="3" shapeId="0">
+    <comment ref="D71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
       <text>
         <r>
           <rPr>
@@ -684,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="3" shapeId="0">
+    <comment ref="F71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
       <text>
         <r>
           <rPr>
@@ -698,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="3" shapeId="0">
+    <comment ref="G71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000028000000}">
       <text>
         <r>
           <rPr>
@@ -711,7 +723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="3" shapeId="0">
+    <comment ref="I71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000029000000}">
       <text>
         <r>
           <rPr>
@@ -724,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="4" shapeId="0">
+    <comment ref="B72" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="3" shapeId="0">
+    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -761,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="3" shapeId="0">
+    <comment ref="F72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G72" authorId="3" shapeId="0">
+    <comment ref="G72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -787,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="3" shapeId="0">
+    <comment ref="I72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -800,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="4" shapeId="0">
+    <comment ref="B73" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -824,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="4" shapeId="0">
+    <comment ref="B74" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000030000000}">
       <text>
         <r>
           <rPr>
@@ -848,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="4" shapeId="0">
+    <comment ref="B76" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000031000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="4" shapeId="0">
+    <comment ref="B77" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000032000000}">
       <text>
         <r>
           <rPr>
@@ -896,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="4" shapeId="0">
+    <comment ref="B78" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000033000000}">
       <text>
         <r>
           <rPr>
@@ -920,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="4" shapeId="0">
+    <comment ref="B79" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000034000000}">
       <text>
         <r>
           <rPr>
@@ -944,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="4" shapeId="0">
+    <comment ref="B80" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000035000000}">
       <text>
         <r>
           <rPr>
@@ -968,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="4" shapeId="0">
+    <comment ref="B81" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000036000000}">
       <text>
         <r>
           <rPr>
@@ -992,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="4" shapeId="0">
+    <comment ref="B82" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="4" shapeId="0">
+    <comment ref="B83" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="4" shapeId="0">
+    <comment ref="B84" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="4" shapeId="0">
+    <comment ref="B85" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="4" shapeId="0">
+    <comment ref="B86" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="4" shapeId="0">
+    <comment ref="B87" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="4" shapeId="0">
+    <comment ref="B88" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1160,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0">
+    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -2449,7 +2461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3468,7 +3480,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3870,6 +3882,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3897,22 +3910,22 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="48"/>
-    <cellStyle name="Body: normal cell 2" xfId="57"/>
+    <cellStyle name="Body: normal cell" xfId="48" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="61" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="43"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59"/>
-    <cellStyle name="Footnotes: all except top row" xfId="52"/>
-    <cellStyle name="Footnotes: top row" xfId="45"/>
-    <cellStyle name="Footnotes: top row 2" xfId="55"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="43" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="42"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Header: top rows" xfId="51"/>
+    <cellStyle name="Header: bottom row" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header: top rows" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -3922,16 +3935,16 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="54"/>
+    <cellStyle name="Normal 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="46"/>
-    <cellStyle name="Parent row 2" xfId="56"/>
+    <cellStyle name="Parent row" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Parent row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Percent" xfId="62" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="44"/>
-    <cellStyle name="Section Break: parent row" xfId="49"/>
-    <cellStyle name="Table title" xfId="50"/>
-    <cellStyle name="Table title 2" xfId="60"/>
+    <cellStyle name="Section Break" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="49" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Table title" xfId="50" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Table title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3963,7 +3976,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4055,6 +4068,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4090,6 +4120,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4265,42 +4312,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="209">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4309,141 +4359,141 @@
       </c>
       <c r="C6" s="202"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="196" t="s">
         <v>403</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="198" t="s">
         <v>331</v>
       </c>
       <c r="B37" s="199"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="203" t="s">
         <v>350</v>
       </c>
@@ -4454,7 +4504,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="201" t="s">
         <v>394</v>
       </c>
@@ -4462,7 +4512,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="197" t="s">
         <v>324</v>
       </c>
@@ -4470,7 +4520,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="197" t="s">
         <v>367</v>
       </c>
@@ -4478,7 +4528,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="201" t="s">
         <v>388</v>
       </c>
@@ -4486,7 +4536,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="201" t="s">
         <v>391</v>
       </c>
@@ -4494,7 +4544,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="201" t="s">
         <v>357</v>
       </c>
@@ -4505,16 +4555,16 @@
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="201"/>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="198" t="s">
         <v>337</v>
       </c>
       <c r="B46" s="199"/>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="203" t="s">
         <v>350</v>
       </c>
@@ -4522,7 +4572,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="201" t="s">
         <v>394</v>
       </c>
@@ -4530,7 +4580,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="197" t="s">
         <v>324</v>
       </c>
@@ -4538,7 +4588,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="197" t="s">
         <v>367</v>
       </c>
@@ -4546,7 +4596,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="201" t="s">
         <v>393</v>
       </c>
@@ -4554,7 +4604,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="201" t="s">
         <v>389</v>
       </c>
@@ -4562,7 +4612,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="201" t="s">
         <v>355</v>
       </c>
@@ -4570,37 +4620,37 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="198" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="198" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="196" t="s">
         <v>316</v>
       </c>
       <c r="B62" s="202"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="200">
         <v>42</v>
       </c>
@@ -4608,7 +4658,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>3.142*10^6</f>
         <v>3142000</v>
@@ -4624,7 +4674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4635,14 +4685,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="20.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
         <v>387</v>
       </c>
@@ -4749,8 +4799,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
@@ -4761,7 +4811,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
@@ -4774,7 +4824,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
@@ -4785,7 +4835,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
@@ -4796,7 +4846,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -4804,12 +4854,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4919,7 +4969,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5029,17 +5079,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5152,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5265,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5378,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5491,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5604,7 +5654,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -5717,7 +5767,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -5830,7 +5880,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -5943,7 +5993,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6056,7 +6106,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6169,7 +6219,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6282,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6395,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6508,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6621,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6734,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -6847,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -6960,7 +7010,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -7073,7 +7123,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7186,7 +7236,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>380</v>
       </c>
@@ -7299,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>378</v>
       </c>
@@ -7412,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7525,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7638,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -7751,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -7864,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -7977,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8090,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8203,7 +8253,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8316,7 +8366,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8429,7 +8479,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8542,12 +8592,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8660,7 +8710,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -8773,7 +8823,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -8886,7 +8936,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -8999,12 +9049,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9117,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9230,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9343,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9456,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9569,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9682,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -9795,12 +9845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -9913,7 +9963,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10026,7 +10076,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10139,7 +10189,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10252,7 +10302,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10365,7 +10415,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10478,7 +10528,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10591,7 +10641,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10704,7 +10754,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -10817,7 +10867,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -10930,7 +10980,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11043,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11156,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11269,8 +11319,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="208" t="s">
         <v>57</v>
       </c>
@@ -11310,37 +11360,37 @@
       <c r="AJ78" s="208"/>
       <c r="AK78" s="208"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8" t="s">
         <v>373</v>
       </c>
@@ -11355,45 +11405,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="22"/>
-    <col min="11" max="11" width="10.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="22"/>
-    <col min="15" max="15" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="22"/>
-    <col min="19" max="19" width="10.42578125" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.140625" style="22"/>
-    <col min="23" max="23" width="10.7109375" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="33.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="22"/>
+    <col min="11" max="11" width="10.5" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" style="22"/>
+    <col min="15" max="15" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1640625" style="22"/>
+    <col min="19" max="19" width="10.5" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.1640625" style="22"/>
+    <col min="23" max="23" width="10.6640625" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11416,7 +11466,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="29" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11441,7 +11491,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11458,7 +11508,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11483,7 +11533,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11520,7 +11570,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11557,7 +11607,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11594,7 +11644,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11627,7 +11677,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11668,7 +11718,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11705,7 +11755,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -11734,7 +11784,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -11763,7 +11813,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -11801,7 +11851,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -11835,7 +11885,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11923,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -11907,7 +11957,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -11941,7 +11991,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -11972,7 +12022,7 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="68" t="s">
         <v>408</v>
       </c>
@@ -11999,7 +12049,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12028,7 +12078,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12057,7 +12107,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12086,7 +12136,7 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
         <v>409</v>
       </c>
@@ -12115,7 +12165,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12144,7 +12194,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12173,7 +12223,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12203,7 +12253,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12232,7 +12282,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12261,7 +12311,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12291,7 +12341,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12320,7 +12370,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12350,7 +12400,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12379,7 +12429,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12409,7 +12459,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12439,7 +12489,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12469,7 +12519,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12499,7 +12549,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12530,7 +12580,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12561,7 +12611,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12591,7 +12641,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12621,7 +12671,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12651,7 +12701,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12681,7 +12731,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -12710,7 +12760,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -12740,7 +12790,7 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
         <v>410</v>
       </c>
@@ -12769,7 +12819,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -12798,7 +12848,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -12828,7 +12878,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -12858,7 +12908,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -12888,7 +12938,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -12918,7 +12968,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -12948,7 +12998,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -12978,7 +13028,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13008,7 +13058,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13037,7 +13087,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13064,7 +13114,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13093,7 +13143,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13116,7 +13166,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13145,7 +13195,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13175,7 +13225,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13204,7 +13254,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13225,7 +13275,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13255,7 +13305,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13276,7 +13326,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13302,7 +13352,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13330,7 +13380,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13358,7 +13408,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13386,7 +13436,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13415,7 +13465,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13444,7 +13494,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13472,7 +13522,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13499,7 +13549,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13527,7 +13577,7 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
         <v>411</v>
       </c>
@@ -13555,7 +13605,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13582,7 +13632,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13611,7 +13661,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13639,7 +13689,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13666,7 +13716,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13693,7 +13743,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -13720,7 +13770,7 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="71" t="s">
         <v>412</v>
       </c>
@@ -13747,7 +13797,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -13770,7 +13820,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -13793,7 +13843,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -13816,7 +13866,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -13843,7 +13893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -13870,7 +13920,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -13897,7 +13947,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -13924,7 +13974,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -13951,7 +14001,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -13978,7 +14028,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="118" t="s">
         <v>413</v>
       </c>
@@ -14012,7 +14062,7 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="123" t="s">
         <v>414</v>
       </c>
@@ -14038,12 +14088,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14058,7 +14108,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14076,7 +14126,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14120,7 +14170,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14164,7 +14214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14208,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14252,7 +14302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14296,13 +14346,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14311,7 +14361,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14334,7 +14384,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14355,7 +14405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14378,7 +14428,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14401,7 +14451,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14424,7 +14474,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14447,7 +14497,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14470,17 +14520,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14488,7 +14538,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14498,7 +14548,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14506,7 +14556,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14519,7 +14569,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14532,7 +14582,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14552,7 +14602,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14575,7 +14625,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14595,7 +14645,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14627,7 +14677,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14659,7 +14709,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -14715,7 +14765,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -14771,7 +14821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -14827,7 +14877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -14883,7 +14933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -14939,7 +14989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -14996,7 +15046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15054,7 +15104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15112,7 +15162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15128,7 +15178,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15138,7 +15188,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15150,7 +15200,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15172,7 +15222,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15194,7 +15244,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15216,7 +15266,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15238,7 +15288,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15260,7 +15310,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15282,7 +15332,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15292,7 +15342,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15314,7 +15364,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15336,7 +15386,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15359,7 +15409,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15382,7 +15432,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15405,7 +15455,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15428,7 +15478,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15439,7 +15489,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15468,7 +15518,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15497,7 +15547,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15526,7 +15576,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15555,7 +15605,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15584,7 +15634,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15613,7 +15663,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15642,7 +15692,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15671,7 +15721,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15700,7 +15750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="22" t="s">
         <v>415</v>
       </c>
@@ -15720,7 +15770,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="22" t="s">
         <v>416</v>
       </c>
@@ -15740,7 +15790,7 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="22" t="s">
         <v>417</v>
       </c>
@@ -15760,7 +15810,7 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="22" t="s">
         <v>418</v>
       </c>
@@ -15780,7 +15830,7 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="22" t="s">
         <v>419</v>
       </c>
@@ -15800,7 +15850,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="22" t="s">
         <v>420</v>
       </c>
@@ -15822,19 +15872,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$D$100:$E$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"None, GWP, GTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>$C$93:$D$93</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"AR5/GWP,AR5/GTP,AR4/GWP,AR3/GWP,AR2/GWP,AR1/GWP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15844,7 +15894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15852,14 +15902,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>407</v>
       </c>
@@ -15966,7 +16016,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -16107,7 +16157,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -16248,7 +16298,7 @@
         <v>19887484000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -16389,7 +16439,7 @@
         <v>1036999999999999.9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>341</v>
       </c>
@@ -16530,7 +16580,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -16637,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -16744,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -16851,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -16992,7 +17042,7 @@
         <v>17906000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -17133,7 +17183,7 @@
         <v>5023036000000</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -17274,7 +17324,7 @@
         <v>5825000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -17415,7 +17465,7 @@
         <v>3989233000000</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -17556,7 +17606,7 @@
         <v>5359000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -17697,7 +17747,7 @@
         <v>5670000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>348</v>
       </c>
@@ -17838,7 +17888,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -17945,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -18086,7 +18136,7 @@
         <v>12992301971719.6</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -18227,7 +18277,7 @@
         <v>5676202000000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -18368,7 +18418,7 @@
         <v>6287000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>370</v>
       </c>
@@ -18509,7 +18559,7 @@
         <v>91410000000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -18650,7 +18700,7 @@
         <v>13583444584264.561</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>367</v>
       </c>
@@ -18797,7 +18847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18805,14 +18855,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="2"/>
+    <col min="36" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>406</v>
       </c>
@@ -18919,7 +18969,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>353</v>
       </c>
@@ -19060,7 +19110,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>323</v>
       </c>
@@ -19201,7 +19251,7 @@
         <v>19887484</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>324</v>
       </c>
@@ -19342,7 +19392,7 @@
         <v>1036999.9999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>359</v>
       </c>
@@ -19483,7 +19533,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -19590,7 +19640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -19697,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -19804,7 +19854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -19945,7 +19995,7 @@
         <v>17906000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -20086,7 +20136,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -20227,7 +20277,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -20368,7 +20418,7 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -20509,7 +20559,7 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -20650,7 +20700,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
@@ -20791,7 +20841,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -20898,7 +20948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
@@ -21039,7 +21089,7 @@
         <v>12992301.9717196</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>368</v>
       </c>
@@ -21180,7 +21230,7 @@
         <v>5676202</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>369</v>
       </c>
@@ -21321,7 +21371,7 @@
         <v>6287000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>370</v>
       </c>
@@ -21462,7 +21512,7 @@
         <v>91410</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>371</v>
       </c>
@@ -21603,7 +21653,7 @@
         <v>13583444.58426456</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>367</v>
       </c>
@@ -21750,7 +21800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21758,13 +21808,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>405</v>
       </c>
@@ -21871,7 +21921,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -21978,7 +22028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22085,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -22226,7 +22276,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -22367,7 +22417,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22474,7 +22524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22581,7 +22631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -22722,7 +22772,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -22829,7 +22879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>370</v>
       </c>
@@ -22936,7 +22986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>367</v>
       </c>
@@ -23049,7 +23099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23057,14 +23107,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>299</v>
       </c>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/web-app/bcf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/web-app/bcf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3124F5B-56A7-0A4C-8288-F15E71C0240D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618A176-88C4-A042-A1E2-870339B4CC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/web-app/bcf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AR/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618A176-88C4-A042-A1E2-870339B4CC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{966C2452-6373-EF4C-A9E7-29EB94099F88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="423">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2456,6 +2456,9 @@
   </si>
   <si>
     <t>GREET1 2019</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
   </si>
 </sst>
 </file>
@@ -3879,10 +3882,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4315,21 +4318,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="209">
-        <v>44307</v>
+      <c r="B1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="208">
+        <v>44374</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11321,44 +11329,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="208" t="s">
+      <c r="B78" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="208"/>
-      <c r="D78" s="208"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="208"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="208"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
-      <c r="P78" s="208"/>
-      <c r="Q78" s="208"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="208"/>
-      <c r="U78" s="208"/>
-      <c r="V78" s="208"/>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208"/>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="209"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="209"/>
+      <c r="T78" s="209"/>
+      <c r="U78" s="209"/>
+      <c r="V78" s="209"/>
+      <c r="W78" s="209"/>
+      <c r="X78" s="209"/>
+      <c r="Y78" s="209"/>
+      <c r="Z78" s="209"/>
+      <c r="AA78" s="209"/>
+      <c r="AB78" s="209"/>
+      <c r="AC78" s="209"/>
+      <c r="AD78" s="209"/>
+      <c r="AE78" s="209"/>
+      <c r="AF78" s="209"/>
+      <c r="AG78" s="209"/>
+      <c r="AH78" s="209"/>
+      <c r="AI78" s="209"/>
+      <c r="AJ78" s="209"/>
+      <c r="AK78" s="209"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8" t="s">
@@ -11413,21 +11421,21 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="22" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="22" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" style="22"/>
-    <col min="11" max="11" width="10.5" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.1640625" style="22"/>
     <col min="15" max="15" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9.1640625" style="22"/>
-    <col min="19" max="19" width="10.5" style="22" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="22" customWidth="1"/>
     <col min="20" max="22" width="9.1640625" style="22"/>
     <col min="23" max="23" width="10.6640625" style="22" customWidth="1"/>
     <col min="24" max="16384" width="9.1640625" style="22"/>
@@ -15900,7 +15908,9 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18705,140 +18715,140 @@
         <v>367</v>
       </c>
       <c r="B22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="C22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="D22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="E22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="F22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="G22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="H22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="I22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="J22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="K22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="L22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="M22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="N22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="O22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="P22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Q22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="R22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="S22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="T22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="U22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="V22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="W22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="X22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Y22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="Z22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AA22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AB22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AC22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AD22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AE22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AF22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AG22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AH22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
       <c r="AI22" s="207">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^9</f>
-        <v>874650000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+        <v>134509803921.56865</v>
       </c>
     </row>
   </sheetData>
@@ -18853,7 +18863,9 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:AI22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21658,140 +21670,140 @@
         <v>367</v>
       </c>
       <c r="B22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="C22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="D22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="E22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="F22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="G22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="H22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="I22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="J22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="K22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="L22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="M22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="N22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="O22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="P22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Q22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="R22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="S22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="T22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="U22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="V22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="W22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="X22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Y22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="Z22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AA22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AB22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AC22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AD22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AE22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AF22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AG22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AH22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
       <c r="AI22" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$62*'GREET1 Fuel_Specs'!$E$62*10^3</f>
-        <v>874650</v>
+        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
+        <v>134509.80392156864</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AR/web-app/BCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966C2452-6373-EF4C-A9E7-29EB94099F88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="25875" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,23 +23,12 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Wang</author>
     <author>ywu</author>
@@ -49,7 +37,7 @@
     <author>A Elgowainy</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="G29" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="A43" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="A63" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="B65" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="B66" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="D66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="F66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="G66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="I66" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="B67" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="D67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="F67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="G67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="I67" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="B68" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="D68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
+    <comment ref="F68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
+    <comment ref="G68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
+    <comment ref="I68" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="B69" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="D69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -544,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
+    <comment ref="F69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
+    <comment ref="G69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
+    <comment ref="I69" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
+    <comment ref="B70" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
+    <comment ref="D70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
+    <comment ref="F70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
+    <comment ref="G70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
+    <comment ref="I70" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
+    <comment ref="B71" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
+    <comment ref="D71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
+    <comment ref="F71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -710,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000028000000}">
+    <comment ref="G71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000029000000}">
+    <comment ref="I71" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -736,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002A000000}">
+    <comment ref="B72" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002B000000}">
+    <comment ref="D72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002C000000}">
+    <comment ref="F72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002D000000}">
+    <comment ref="G72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002E000000}">
+    <comment ref="I72" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002F000000}">
+    <comment ref="B73" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -836,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000030000000}">
+    <comment ref="B74" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000031000000}">
+    <comment ref="B76" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -884,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000032000000}">
+    <comment ref="B77" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -908,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000033000000}">
+    <comment ref="B78" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000034000000}">
+    <comment ref="B79" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -956,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000035000000}">
+    <comment ref="B80" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -980,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000036000000}">
+    <comment ref="B81" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000037000000}">
+    <comment ref="B82" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1028,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000038000000}">
+    <comment ref="B83" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000039000000}">
+    <comment ref="B84" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003A000000}">
+    <comment ref="B85" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003B000000}">
+    <comment ref="B86" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003C000000}">
+    <comment ref="B87" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003D000000}">
+    <comment ref="B88" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003E000000}">
+    <comment ref="A90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2456,15 +2444,12 @@
   </si>
   <si>
     <t>GREET1 2019</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3483,7 +3468,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3882,7 +3867,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3913,22 +3897,22 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="48" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Body: normal cell" xfId="48"/>
+    <cellStyle name="Body: normal cell 2" xfId="57"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="61" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="43" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="43"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59"/>
+    <cellStyle name="Footnotes: all except top row" xfId="52"/>
+    <cellStyle name="Footnotes: top row" xfId="45"/>
+    <cellStyle name="Footnotes: top row 2" xfId="55"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Header: top rows" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header: bottom row" xfId="42"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Header: top rows" xfId="51"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -3938,16 +3922,16 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 2" xfId="54"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Parent row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Parent row" xfId="46"/>
+    <cellStyle name="Parent row 2" xfId="56"/>
     <cellStyle name="Percent" xfId="62" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="49" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Table title" xfId="50" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Table title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Section Break" xfId="44"/>
+    <cellStyle name="Section Break: parent row" xfId="49"/>
+    <cellStyle name="Table title" xfId="50"/>
+    <cellStyle name="Table title 2" xfId="60"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3979,7 +3963,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4071,23 +4055,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4123,23 +4090,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4315,50 +4265,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1" s="208">
-        <v>44374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4367,141 +4309,141 @@
       </c>
       <c r="C6" s="202"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="196" t="s">
         <v>403</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="198" t="s">
         <v>331</v>
       </c>
       <c r="B37" s="199"/>
     </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="203" t="s">
         <v>350</v>
       </c>
@@ -4512,7 +4454,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="201" t="s">
         <v>394</v>
       </c>
@@ -4520,7 +4462,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="197" t="s">
         <v>324</v>
       </c>
@@ -4528,7 +4470,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="197" t="s">
         <v>367</v>
       </c>
@@ -4536,7 +4478,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="201" t="s">
         <v>388</v>
       </c>
@@ -4544,7 +4486,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="201" t="s">
         <v>391</v>
       </c>
@@ -4552,7 +4494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="201" t="s">
         <v>357</v>
       </c>
@@ -4563,16 +4505,16 @@
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="201"/>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="198" t="s">
         <v>337</v>
       </c>
       <c r="B46" s="199"/>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="203" t="s">
         <v>350</v>
       </c>
@@ -4580,7 +4522,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="201" t="s">
         <v>394</v>
       </c>
@@ -4588,7 +4530,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="197" t="s">
         <v>324</v>
       </c>
@@ -4596,7 +4538,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="197" t="s">
         <v>367</v>
       </c>
@@ -4604,7 +4546,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A51" s="201" t="s">
         <v>393</v>
       </c>
@@ -4612,7 +4554,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="201" t="s">
         <v>389</v>
       </c>
@@ -4620,7 +4562,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="201" t="s">
         <v>355</v>
       </c>
@@ -4628,37 +4570,37 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="198" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="198" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="196" t="s">
         <v>316</v>
       </c>
       <c r="B62" s="202"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="200">
         <v>42</v>
       </c>
@@ -4666,7 +4608,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <f>3.142*10^6</f>
         <v>3142000</v>
@@ -4682,7 +4624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4693,14 +4635,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="7"/>
+    <col min="1" max="1" width="20.86328125" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
         <v>387</v>
       </c>
@@ -4807,8 +4749,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
@@ -4819,7 +4761,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
@@ -4832,7 +4774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
@@ -4843,7 +4785,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
@@ -4854,7 +4796,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -4862,12 +4804,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4977,7 +4919,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5087,17 +5029,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5210,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5323,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5436,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5549,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5662,7 +5604,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -5775,7 +5717,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -5888,7 +5830,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -6001,7 +5943,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6114,7 +6056,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6227,7 +6169,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6340,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6453,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6566,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6679,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6792,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -6905,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -7018,7 +6960,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -7131,7 +7073,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7244,7 +7186,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
         <v>380</v>
       </c>
@@ -7357,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>378</v>
       </c>
@@ -7470,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7583,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7696,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -7809,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -7922,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -8035,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8148,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8261,7 +8203,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8374,7 +8316,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8487,7 +8429,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8600,12 +8542,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8718,7 +8660,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -8831,7 +8773,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -8944,7 +8886,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -9057,12 +8999,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9175,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9288,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9401,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9514,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9627,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9740,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -9853,12 +9795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -9971,7 +9913,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10084,7 +10026,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10197,7 +10139,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10310,7 +10252,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10423,7 +10365,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10536,7 +10478,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10649,7 +10591,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10762,7 +10704,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -10875,7 +10817,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -10988,7 +10930,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11101,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11214,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11327,78 +11269,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="209" t="s">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
-      <c r="F78" s="209"/>
-      <c r="G78" s="209"/>
-      <c r="H78" s="209"/>
-      <c r="I78" s="209"/>
-      <c r="J78" s="209"/>
-      <c r="K78" s="209"/>
-      <c r="L78" s="209"/>
-      <c r="M78" s="209"/>
-      <c r="N78" s="209"/>
-      <c r="O78" s="209"/>
-      <c r="P78" s="209"/>
-      <c r="Q78" s="209"/>
-      <c r="R78" s="209"/>
-      <c r="S78" s="209"/>
-      <c r="T78" s="209"/>
-      <c r="U78" s="209"/>
-      <c r="V78" s="209"/>
-      <c r="W78" s="209"/>
-      <c r="X78" s="209"/>
-      <c r="Y78" s="209"/>
-      <c r="Z78" s="209"/>
-      <c r="AA78" s="209"/>
-      <c r="AB78" s="209"/>
-      <c r="AC78" s="209"/>
-      <c r="AD78" s="209"/>
-      <c r="AE78" s="209"/>
-      <c r="AF78" s="209"/>
-      <c r="AG78" s="209"/>
-      <c r="AH78" s="209"/>
-      <c r="AI78" s="209"/>
-      <c r="AJ78" s="209"/>
-      <c r="AK78" s="209"/>
-    </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="208"/>
+      <c r="D78" s="208"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="208"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="208"/>
+      <c r="K78" s="208"/>
+      <c r="L78" s="208"/>
+      <c r="M78" s="208"/>
+      <c r="N78" s="208"/>
+      <c r="O78" s="208"/>
+      <c r="P78" s="208"/>
+      <c r="Q78" s="208"/>
+      <c r="R78" s="208"/>
+      <c r="S78" s="208"/>
+      <c r="T78" s="208"/>
+      <c r="U78" s="208"/>
+      <c r="V78" s="208"/>
+      <c r="W78" s="208"/>
+      <c r="X78" s="208"/>
+      <c r="Y78" s="208"/>
+      <c r="Z78" s="208"/>
+      <c r="AA78" s="208"/>
+      <c r="AB78" s="208"/>
+      <c r="AC78" s="208"/>
+      <c r="AD78" s="208"/>
+      <c r="AE78" s="208"/>
+      <c r="AF78" s="208"/>
+      <c r="AG78" s="208"/>
+      <c r="AH78" s="208"/>
+      <c r="AI78" s="208"/>
+      <c r="AJ78" s="208"/>
+      <c r="AK78" s="208"/>
+    </row>
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>373</v>
       </c>
@@ -11413,45 +11355,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="22"/>
-    <col min="11" max="11" width="10.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1640625" style="22"/>
-    <col min="15" max="15" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.1640625" style="22"/>
-    <col min="19" max="19" width="10.33203125" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.1640625" style="22"/>
-    <col min="23" max="23" width="10.6640625" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="22"/>
+    <col min="1" max="1" width="33.1328125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="22"/>
+    <col min="11" max="11" width="10.3984375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1328125" style="22"/>
+    <col min="15" max="15" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1328125" style="22"/>
+    <col min="19" max="19" width="10.3984375" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.1328125" style="22"/>
+    <col min="23" max="23" width="10.73046875" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.1328125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11474,7 +11416,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11499,7 +11441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11516,7 +11458,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11541,7 +11483,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11578,7 +11520,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11615,7 +11557,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11652,7 +11594,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11685,7 +11627,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11726,7 +11668,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11763,7 +11705,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -11792,7 +11734,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -11821,7 +11763,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -11859,7 +11801,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -11893,7 +11835,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -11931,7 +11873,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -11965,7 +11907,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -11999,7 +11941,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -12030,7 +11972,7 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="68" t="s">
         <v>408</v>
       </c>
@@ -12057,7 +11999,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12086,7 +12028,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12115,7 +12057,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12144,7 +12086,7 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A25" s="70" t="s">
         <v>409</v>
       </c>
@@ -12173,7 +12115,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12202,7 +12144,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12231,7 +12173,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12261,7 +12203,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12290,7 +12232,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12319,7 +12261,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12349,7 +12291,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12378,7 +12320,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12408,7 +12350,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12437,7 +12379,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12467,7 +12409,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12497,7 +12439,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12527,7 +12469,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12557,7 +12499,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12588,7 +12530,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12619,7 +12561,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12649,7 +12591,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12679,7 +12621,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12709,7 +12651,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12739,7 +12681,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -12768,7 +12710,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -12798,7 +12740,7 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="48" t="s">
         <v>410</v>
       </c>
@@ -12827,7 +12769,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -12856,7 +12798,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -12886,7 +12828,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -12916,7 +12858,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -12946,7 +12888,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -12976,7 +12918,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -13006,7 +12948,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -13036,7 +12978,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13066,7 +13008,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13095,7 +13037,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13122,7 +13064,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13151,7 +13093,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13174,7 +13116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13203,7 +13145,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13233,7 +13175,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13262,7 +13204,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13283,7 +13225,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13313,7 +13255,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13334,7 +13276,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13360,7 +13302,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13388,7 +13330,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13416,7 +13358,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13444,7 +13386,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13473,7 +13415,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13502,7 +13444,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13530,7 +13472,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13557,7 +13499,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13585,7 +13527,7 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="48" t="s">
         <v>411</v>
       </c>
@@ -13613,7 +13555,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13640,7 +13582,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13669,7 +13611,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13697,7 +13639,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13724,7 +13666,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13751,7 +13693,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -13778,7 +13720,7 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="71" t="s">
         <v>412</v>
       </c>
@@ -13805,7 +13747,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -13828,7 +13770,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -13851,7 +13793,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -13874,7 +13816,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -13901,7 +13843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -13928,7 +13870,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -13955,7 +13897,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -13982,7 +13924,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -14009,7 +13951,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -14036,7 +13978,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="118" t="s">
         <v>413</v>
       </c>
@@ -14070,7 +14012,7 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="123" t="s">
         <v>414</v>
       </c>
@@ -14096,12 +14038,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14116,7 +14058,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14134,7 +14076,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14178,7 +14120,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14222,7 +14164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14266,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14310,7 +14252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14354,13 +14296,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14369,7 +14311,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14392,7 +14334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14413,7 +14355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14436,7 +14378,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14459,7 +14401,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14482,7 +14424,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14505,7 +14447,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14528,17 +14470,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14546,7 +14488,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14556,7 +14498,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14564,7 +14506,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14577,7 +14519,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14590,7 +14532,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14610,7 +14552,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14633,7 +14575,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14653,7 +14595,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14685,7 +14627,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14717,7 +14659,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -14773,7 +14715,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -14829,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -14885,7 +14827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -14941,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -14997,7 +14939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -15054,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15112,7 +15054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15170,7 +15112,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15186,7 +15128,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15196,7 +15138,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15208,7 +15150,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15230,7 +15172,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15252,7 +15194,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15274,7 +15216,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15296,7 +15238,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15318,7 +15260,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15340,7 +15282,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15350,7 +15292,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15372,7 +15314,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15394,7 +15336,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15417,7 +15359,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15440,7 +15382,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15463,7 +15405,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15486,7 +15428,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15497,7 +15439,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15526,7 +15468,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15555,7 +15497,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15584,7 +15526,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15613,7 +15555,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15642,7 +15584,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15671,7 +15613,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15700,7 +15642,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15729,7 +15671,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15758,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="22" t="s">
         <v>415</v>
       </c>
@@ -15778,7 +15720,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="22" t="s">
         <v>416</v>
       </c>
@@ -15798,7 +15740,7 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="22" t="s">
         <v>417</v>
       </c>
@@ -15818,7 +15760,7 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="22" t="s">
         <v>418</v>
       </c>
@@ -15838,7 +15780,7 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="22" t="s">
         <v>419</v>
       </c>
@@ -15858,7 +15800,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="22" t="s">
         <v>420</v>
       </c>
@@ -15880,19 +15822,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
       <formula1>$D$100:$E$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
       <formula1>"None, GWP, GTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
       <formula1>$C$93:$D$93</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
       <formula1>"AR5/GWP,AR5/GTP,AR4/GWP,AR3/GWP,AR2/GWP,AR1/GWP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15902,7 +15844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15912,14 +15854,14 @@
       <selection activeCell="B22" sqref="B22:AI22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>407</v>
       </c>
@@ -16026,7 +15968,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -16167,7 +16109,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -16308,7 +16250,7 @@
         <v>19887484000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -16449,7 +16391,7 @@
         <v>1036999999999999.9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>341</v>
       </c>
@@ -16590,7 +16532,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -16697,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -16804,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -16911,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -17052,7 +16994,7 @@
         <v>17906000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -17193,7 +17135,7 @@
         <v>5023036000000</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -17334,7 +17276,7 @@
         <v>5825000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -17475,7 +17417,7 @@
         <v>3989233000000</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -17616,7 +17558,7 @@
         <v>5359000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -17757,7 +17699,7 @@
         <v>5670000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>348</v>
       </c>
@@ -17898,7 +17840,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -18005,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -18146,7 +18088,7 @@
         <v>12992301971719.6</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -18287,7 +18229,7 @@
         <v>5676202000000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -18428,7 +18370,7 @@
         <v>6287000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>370</v>
       </c>
@@ -18569,7 +18511,7 @@
         <v>91410000000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -18710,7 +18652,7 @@
         <v>13583444584264.561</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>367</v>
       </c>
@@ -18857,7 +18799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18867,14 +18809,14 @@
       <selection activeCell="B22" sqref="B22:AI22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.1640625" style="2"/>
+    <col min="36" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>406</v>
       </c>
@@ -18981,7 +18923,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>353</v>
       </c>
@@ -19122,7 +19064,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>323</v>
       </c>
@@ -19263,7 +19205,7 @@
         <v>19887484</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>324</v>
       </c>
@@ -19404,7 +19346,7 @@
         <v>1036999.9999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>359</v>
       </c>
@@ -19545,7 +19487,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -19652,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -19759,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -19866,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -20007,7 +19949,7 @@
         <v>17906000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -20148,7 +20090,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -20289,7 +20231,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -20430,7 +20372,7 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -20571,7 +20513,7 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -20712,7 +20654,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
@@ -20853,7 +20795,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -20960,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
@@ -21101,7 +21043,7 @@
         <v>12992301.9717196</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>368</v>
       </c>
@@ -21242,7 +21184,7 @@
         <v>5676202</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>369</v>
       </c>
@@ -21383,7 +21325,7 @@
         <v>6287000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>370</v>
       </c>
@@ -21524,7 +21466,7 @@
         <v>91410</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>371</v>
       </c>
@@ -21665,7 +21607,7 @@
         <v>13583444.58426456</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>367</v>
       </c>
@@ -21812,7 +21754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21820,13 +21762,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.265625" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>405</v>
       </c>
@@ -21933,7 +21875,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -22040,7 +21982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22147,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -22288,7 +22230,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -22429,7 +22371,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22536,7 +22478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22643,7 +22585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -22784,7 +22726,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -22891,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>370</v>
       </c>
@@ -22998,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>367</v>
       </c>
@@ -23111,7 +23053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23119,14 +23061,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>299</v>
       </c>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AR/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E80EF06-8DBE-2E4A-BF88-2006F91B5F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="25875" windowHeight="10545"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,14 +22,25 @@
     <sheet name="BCF-BpEIEOU" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="gal_per_barrel">About!$A$63</definedName>
+    <definedName name="gal_per_barrel">About!$A$66</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Michael Wang</author>
     <author>ywu</author>
@@ -37,7 +49,7 @@
     <author>A Elgowainy</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="1" shapeId="0">
+    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="2" shapeId="0">
+    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="3" shapeId="0">
+    <comment ref="A63" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="4" shapeId="0">
+    <comment ref="B65" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="4" shapeId="0">
+    <comment ref="B66" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="3" shapeId="0">
+    <comment ref="D66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="3" shapeId="0">
+    <comment ref="F66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="3" shapeId="0">
+    <comment ref="G66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="3" shapeId="0">
+    <comment ref="I66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="4" shapeId="0">
+    <comment ref="B67" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="3" shapeId="0">
+    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="3" shapeId="0">
+    <comment ref="F67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G67" authorId="3" shapeId="0">
+    <comment ref="G67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="3" shapeId="0">
+    <comment ref="I67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="4" shapeId="0">
+    <comment ref="B68" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="3" shapeId="0">
+    <comment ref="D68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="3" shapeId="0">
+    <comment ref="F68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G68" authorId="3" shapeId="0">
+    <comment ref="G68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="3" shapeId="0">
+    <comment ref="I68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="4" shapeId="0">
+    <comment ref="B69" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="3" shapeId="0">
+    <comment ref="D69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="3" shapeId="0">
+    <comment ref="F69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -545,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="3" shapeId="0">
+    <comment ref="G69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -558,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="3" shapeId="0">
+    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="4" shapeId="0">
+    <comment ref="B70" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0">
+    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="3" shapeId="0">
+    <comment ref="F70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="3" shapeId="0">
+    <comment ref="G70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="3" shapeId="0">
+    <comment ref="I70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="4" shapeId="0">
+    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
       <text>
         <r>
           <rPr>
@@ -671,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D71" authorId="3" shapeId="0">
+    <comment ref="D71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
       <text>
         <r>
           <rPr>
@@ -684,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="3" shapeId="0">
+    <comment ref="F71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
       <text>
         <r>
           <rPr>
@@ -698,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="3" shapeId="0">
+    <comment ref="G71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000028000000}">
       <text>
         <r>
           <rPr>
@@ -711,7 +723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="3" shapeId="0">
+    <comment ref="I71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000029000000}">
       <text>
         <r>
           <rPr>
@@ -724,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="4" shapeId="0">
+    <comment ref="B72" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="3" shapeId="0">
+    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -761,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="3" shapeId="0">
+    <comment ref="F72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G72" authorId="3" shapeId="0">
+    <comment ref="G72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -787,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="3" shapeId="0">
+    <comment ref="I72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -800,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="4" shapeId="0">
+    <comment ref="B73" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -824,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="4" shapeId="0">
+    <comment ref="B74" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000030000000}">
       <text>
         <r>
           <rPr>
@@ -848,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="4" shapeId="0">
+    <comment ref="B76" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000031000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="4" shapeId="0">
+    <comment ref="B77" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000032000000}">
       <text>
         <r>
           <rPr>
@@ -896,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="4" shapeId="0">
+    <comment ref="B78" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000033000000}">
       <text>
         <r>
           <rPr>
@@ -920,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="4" shapeId="0">
+    <comment ref="B79" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000034000000}">
       <text>
         <r>
           <rPr>
@@ -944,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="4" shapeId="0">
+    <comment ref="B80" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000035000000}">
       <text>
         <r>
           <rPr>
@@ -968,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="4" shapeId="0">
+    <comment ref="B81" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000036000000}">
       <text>
         <r>
           <rPr>
@@ -992,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="4" shapeId="0">
+    <comment ref="B82" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="4" shapeId="0">
+    <comment ref="B83" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="4" shapeId="0">
+    <comment ref="B84" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="4" shapeId="0">
+    <comment ref="B85" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="4" shapeId="0">
+    <comment ref="B86" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="4" shapeId="0">
+    <comment ref="B87" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="4" shapeId="0">
+    <comment ref="B88" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1160,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0">
+    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="425">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2188,9 +2200,6 @@
     <t>miles per gallon</t>
   </si>
   <si>
-    <t>million barrels</t>
-  </si>
-  <si>
     <t>Small Fuel Output Units</t>
   </si>
   <si>
@@ -2350,9 +2359,6 @@
     <t>crude oil, heavy fuel oil</t>
   </si>
   <si>
-    <t>barrels</t>
-  </si>
-  <si>
     <t>LPG/propane/butane</t>
   </si>
   <si>
@@ -2444,12 +2450,27 @@
   </si>
   <si>
     <t>GREET1 2019</t>
+  </si>
+  <si>
+    <t>Barrels of oil has been used across petroleum fuels to provide a more standardized unit, instead of converting from</t>
+  </si>
+  <si>
+    <t>BTU to barrel of each equivalent fuel.</t>
+  </si>
+  <si>
+    <t>million barrels of oil</t>
+  </si>
+  <si>
+    <t>barrels of oil</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3468,7 +3489,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3867,6 +3888,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3897,22 +3919,22 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="48"/>
-    <cellStyle name="Body: normal cell 2" xfId="57"/>
+    <cellStyle name="Body: normal cell" xfId="48" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="61" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="43"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59"/>
-    <cellStyle name="Footnotes: all except top row" xfId="52"/>
-    <cellStyle name="Footnotes: top row" xfId="45"/>
-    <cellStyle name="Footnotes: top row 2" xfId="55"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="43" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="42"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Header: top rows" xfId="51"/>
+    <cellStyle name="Header: bottom row" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header: top rows" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -3922,16 +3944,16 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="54"/>
+    <cellStyle name="Normal 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="46"/>
-    <cellStyle name="Parent row 2" xfId="56"/>
+    <cellStyle name="Parent row" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Parent row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Percent" xfId="62" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="44"/>
-    <cellStyle name="Section Break: parent row" xfId="49"/>
-    <cellStyle name="Table title" xfId="50"/>
-    <cellStyle name="Table title 2" xfId="60"/>
+    <cellStyle name="Section Break" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="49" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Table title" xfId="50" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Table title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3963,7 +3985,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4055,6 +4077,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4090,6 +4129,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4265,356 +4321,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.3984375" customWidth="1"/>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
-    <col min="3" max="3" width="39.3984375" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C1" s="208">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="196" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" s="202"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="196" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="198" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="199"/>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="203" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="203" t="s">
+        <v>350</v>
+      </c>
+      <c r="C41" s="204" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="201" t="s">
+        <v>392</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="197" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="201" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="201" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="204" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="201"/>
+    </row>
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="198" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="199"/>
+    </row>
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="203" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="203" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="201" t="s">
+        <v>392</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="197" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="201" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="201" t="s">
+        <v>388</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="201" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="198" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="198" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="198" t="s">
-        <v>331</v>
-      </c>
-      <c r="B37" s="199"/>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="203" t="s">
-        <v>350</v>
-      </c>
-      <c r="B38" s="203" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="204" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="201" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="197" t="s">
-        <v>324</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="197" t="s">
-        <v>367</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="201" t="s">
-        <v>388</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="201" t="s">
-        <v>391</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="201" t="s">
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="204" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="201"/>
-    </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="198" t="s">
-        <v>337</v>
-      </c>
-      <c r="B46" s="199"/>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="203" t="s">
-        <v>350</v>
-      </c>
-      <c r="B47" s="203" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="201" t="s">
-        <v>394</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="197" t="s">
-        <v>324</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="197" t="s">
-        <v>367</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A51" s="201" t="s">
-        <v>393</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="201" t="s">
-        <v>389</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="201" t="s">
-        <v>355</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="198" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="198" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="196" t="s">
+    </row>
+    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="196" t="s">
         <v>316</v>
       </c>
-      <c r="B62" s="202"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="200">
+      <c r="B65" s="202"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="200">
         <v>42</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
         <f>3.142*10^6</f>
         <v>3142000</v>
       </c>
-      <c r="B64" t="s">
-        <v>340</v>
+      <c r="B67" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4624,27 +4699,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="20.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1" s="16">
         <v>2017</v>
@@ -4749,24 +4824,24 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -4774,29 +4849,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -4804,12 +4879,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4916,10 +4991,10 @@
         <v>2</v>
       </c>
       <c r="AK12" s="17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5029,17 +5104,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5152,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5265,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5378,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5491,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5604,7 +5679,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -5717,7 +5792,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -5830,7 +5905,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -5943,7 +6018,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6056,7 +6131,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6169,7 +6244,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6282,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6395,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6508,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6621,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6734,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -6847,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -6960,12 +7035,12 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C33" s="14">
         <v>5.0566430000000002</v>
@@ -7073,7 +7148,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7186,12 +7261,12 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C35" s="14">
         <v>5.2222799999999996</v>
@@ -7299,12 +7374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="14">
         <v>5.2222799999999996</v>
@@ -7412,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7525,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7638,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -7751,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -7864,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -7977,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8090,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8203,7 +8278,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8316,7 +8391,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8429,7 +8504,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8542,12 +8617,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8660,7 +8735,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -8773,7 +8848,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -8886,7 +8961,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -8999,12 +9074,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9117,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9230,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9343,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9456,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9569,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9682,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -9795,12 +9870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -9913,7 +9988,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10026,7 +10101,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10139,7 +10214,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10252,7 +10327,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10365,7 +10440,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10478,7 +10553,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10591,7 +10666,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10704,7 +10779,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -10817,7 +10892,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -10930,7 +11005,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11043,7 +11118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11156,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11269,80 +11344,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="208" t="s">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="208"/>
-      <c r="D78" s="208"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="208"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="208"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
-      <c r="P78" s="208"/>
-      <c r="Q78" s="208"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="208"/>
-      <c r="U78" s="208"/>
-      <c r="V78" s="208"/>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208"/>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
-    </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="209"/>
+      <c r="D78" s="209"/>
+      <c r="E78" s="209"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="209"/>
+      <c r="M78" s="209"/>
+      <c r="N78" s="209"/>
+      <c r="O78" s="209"/>
+      <c r="P78" s="209"/>
+      <c r="Q78" s="209"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="209"/>
+      <c r="T78" s="209"/>
+      <c r="U78" s="209"/>
+      <c r="V78" s="209"/>
+      <c r="W78" s="209"/>
+      <c r="X78" s="209"/>
+      <c r="Y78" s="209"/>
+      <c r="Z78" s="209"/>
+      <c r="AA78" s="209"/>
+      <c r="AB78" s="209"/>
+      <c r="AC78" s="209"/>
+      <c r="AD78" s="209"/>
+      <c r="AE78" s="209"/>
+      <c r="AF78" s="209"/>
+      <c r="AG78" s="209"/>
+      <c r="AH78" s="209"/>
+      <c r="AI78" s="209"/>
+      <c r="AJ78" s="209"/>
+      <c r="AK78" s="209"/>
+    </row>
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -11355,45 +11430,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1328125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.265625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="22"/>
-    <col min="11" max="11" width="10.3984375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1328125" style="22"/>
-    <col min="15" max="15" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.1328125" style="22"/>
-    <col min="19" max="19" width="10.3984375" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.1328125" style="22"/>
-    <col min="23" max="23" width="10.73046875" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.1328125" style="22"/>
+    <col min="1" max="1" width="33.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="22"/>
+    <col min="11" max="11" width="10.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" style="22"/>
+    <col min="15" max="15" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1640625" style="22"/>
+    <col min="19" max="19" width="10.33203125" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.1640625" style="22"/>
+    <col min="23" max="23" width="10.6640625" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11416,7 +11491,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="29" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11441,7 +11516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11458,7 +11533,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11483,7 +11558,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11520,7 +11595,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11557,7 +11632,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11594,7 +11669,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11627,7 +11702,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11668,7 +11743,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11705,7 +11780,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -11734,7 +11809,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -11763,7 +11838,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -11801,7 +11876,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -11835,7 +11910,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +11948,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -11907,7 +11982,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -11941,7 +12016,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -11972,9 +12047,9 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="68" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B21" s="49">
         <v>129487.84757606639</v>
@@ -11999,7 +12074,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12028,7 +12103,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12057,7 +12132,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12086,9 +12161,9 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B25" s="49">
         <v>118237.434842673</v>
@@ -12115,7 +12190,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12144,7 +12219,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12173,7 +12248,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12203,7 +12278,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12232,7 +12307,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12261,7 +12336,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12291,7 +12366,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12320,7 +12395,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12350,7 +12425,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12379,7 +12454,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12409,7 +12484,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12439,7 +12514,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12469,7 +12544,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12499,7 +12574,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12530,7 +12605,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12561,7 +12636,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12591,7 +12666,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12621,7 +12696,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12651,7 +12726,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12681,7 +12756,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -12710,7 +12785,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -12740,9 +12815,9 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B47" s="49">
         <v>112060.7</v>
@@ -12769,7 +12844,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -12798,7 +12873,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -12828,7 +12903,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -12858,7 +12933,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -12888,7 +12963,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -12918,7 +12993,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -12948,7 +13023,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -12978,7 +13053,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13008,7 +13083,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13037,7 +13112,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13064,7 +13139,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13093,7 +13168,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13116,7 +13191,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13145,7 +13220,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13175,7 +13250,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13204,7 +13279,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13225,7 +13300,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13255,7 +13330,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13276,7 +13351,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13302,7 +13377,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13330,7 +13405,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13358,7 +13433,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13386,7 +13461,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13415,7 +13490,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13444,7 +13519,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13472,7 +13547,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13499,7 +13574,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13527,9 +13602,9 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B75" s="49">
         <v>28385750.368920002</v>
@@ -13555,7 +13630,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13582,7 +13657,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13611,7 +13686,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13639,7 +13714,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13666,7 +13741,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13693,7 +13768,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -13720,9 +13795,9 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B82" s="49">
         <v>15929000</v>
@@ -13747,7 +13822,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -13770,7 +13845,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -13793,7 +13868,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -13816,7 +13891,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -13843,7 +13918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -13870,7 +13945,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -13897,7 +13972,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -13924,7 +13999,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -13951,7 +14026,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -13978,9 +14053,9 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="118" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B92" s="119">
         <v>152370.90134048002</v>
@@ -14012,9 +14087,9 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="123" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B93" s="124">
         <v>144230</v>
@@ -14038,12 +14113,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14058,7 +14133,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14076,7 +14151,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14120,7 +14195,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14164,7 +14239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14208,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14252,7 +14327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14296,13 +14371,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14311,7 +14386,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14334,7 +14409,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14355,7 +14430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14378,7 +14453,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14401,7 +14476,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14424,7 +14499,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14447,7 +14522,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14470,17 +14545,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14488,7 +14563,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14498,7 +14573,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14506,7 +14581,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14519,7 +14594,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14532,7 +14607,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14552,7 +14627,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14575,7 +14650,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14595,7 +14670,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14627,7 +14702,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14659,7 +14734,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -14715,7 +14790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -14771,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -14827,7 +14902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -14883,7 +14958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -14939,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -14996,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15054,7 +15129,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15112,7 +15187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15128,7 +15203,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15138,7 +15213,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15150,7 +15225,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15172,7 +15247,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15194,7 +15269,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15216,7 +15291,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15238,7 +15313,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15260,7 +15335,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15282,7 +15357,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15292,7 +15367,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15314,7 +15389,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15336,7 +15411,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15359,7 +15434,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15382,7 +15457,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15405,7 +15480,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15428,7 +15503,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15439,7 +15514,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15468,7 +15543,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15497,7 +15572,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15526,7 +15601,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15555,7 +15630,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15584,7 +15659,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15613,7 +15688,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15642,7 +15717,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15671,7 +15746,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15700,29 +15775,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C158" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="D158" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="C158" s="22" t="s">
+      <c r="E158" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="F158" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="E158" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="F158" s="22" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B159" s="22">
         <v>1</v>
@@ -15740,9 +15815,9 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B160" s="22">
         <v>1E-3</v>
@@ -15760,9 +15835,9 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B161" s="22">
         <v>9.9999999999999995E-7</v>
@@ -15780,9 +15855,9 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B162" s="22">
         <v>3.2808398950131233E-3</v>
@@ -15800,9 +15875,9 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B163" s="22">
         <v>6.2137273664980671E-7</v>
@@ -15822,19 +15897,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$D$100:$E$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"None, GWP, GTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>$C$93:$D$93</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"AR5/GWP,AR5/GTP,AR4/GWP,AR3/GWP,AR2/GWP,AR1/GWP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15844,26 +15919,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="U13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.86328125" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -15968,148 +16043,148 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="C2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="D2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="E2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="F2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="G2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="H2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="I2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="J2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="K2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="L2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="M2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="N2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="O2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="P2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Q2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="R2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="S2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="T2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="U2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="V2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="W2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="X2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Y2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Z2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AA2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AB2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AC2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AD2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AE2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AF2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AG2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AH2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AI2" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -16250,7 +16325,7 @@
         <v>19887484000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -16391,9 +16466,9 @@
         <v>1036999999999999.9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:AI5" si="0">10^12</f>
@@ -16532,224 +16607,224 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -16853,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -16994,855 +17069,855 @@
         <v>17906000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B10" s="5">
-        <f>'AEO Table 73'!C32*10^12</f>
-        <v>5056643000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C10" s="5">
-        <f>'AEO Table 73'!D32*10^12</f>
-        <v>5055260000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D10" s="5">
-        <f>'AEO Table 73'!E32*10^12</f>
-        <v>5055925000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E10" s="5">
-        <f>'AEO Table 73'!F32*10^12</f>
-        <v>5056270000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F10" s="5">
-        <f>'AEO Table 73'!G32*10^12</f>
-        <v>5055361000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G10" s="5">
-        <f>'AEO Table 73'!H32*10^12</f>
-        <v>5053336000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H10" s="5">
-        <f>'AEO Table 73'!I32*10^12</f>
-        <v>5050816000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I10" s="5">
-        <f>'AEO Table 73'!J32*10^12</f>
-        <v>5050002000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J10" s="5">
-        <f>'AEO Table 73'!K32*10^12</f>
-        <v>5049479000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K10" s="5">
-        <f>'AEO Table 73'!L32*10^12</f>
-        <v>5049067000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L10" s="5">
-        <f>'AEO Table 73'!M32*10^12</f>
-        <v>5048620000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M10" s="5">
-        <f>'AEO Table 73'!N32*10^12</f>
-        <v>5048186000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N10" s="5">
-        <f>'AEO Table 73'!O32*10^12</f>
-        <v>5047752000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O10" s="5">
-        <f>'AEO Table 73'!P32*10^12</f>
-        <v>5047827000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P10" s="5">
-        <f>'AEO Table 73'!Q32*10^12</f>
-        <v>5047112000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q10" s="5">
-        <f>'AEO Table 73'!R32*10^12</f>
-        <v>5046712000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R10" s="5">
-        <f>'AEO Table 73'!S32*10^12</f>
-        <v>5046464000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S10" s="5">
-        <f>'AEO Table 73'!T32*10^12</f>
-        <v>5045877000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T10" s="5">
-        <f>'AEO Table 73'!U32*10^12</f>
-        <v>5045186000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U10" s="5">
-        <f>'AEO Table 73'!V32*10^12</f>
-        <v>5044430000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V10" s="5">
-        <f>'AEO Table 73'!W32*10^12</f>
-        <v>5043581000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W10" s="5">
-        <f>'AEO Table 73'!X32*10^12</f>
-        <v>5042755000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X10" s="5">
-        <f>'AEO Table 73'!Y32*10^12</f>
-        <v>5041688000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y10" s="5">
-        <f>'AEO Table 73'!Z32*10^12</f>
-        <v>5040498000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z10" s="5">
-        <f>'AEO Table 73'!AA32*10^12</f>
-        <v>5039160000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA10" s="5">
-        <f>'AEO Table 73'!AB32*10^12</f>
-        <v>5037867000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB10" s="5">
-        <f>'AEO Table 73'!AC32*10^12</f>
-        <v>5036224000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC10" s="5">
-        <f>'AEO Table 73'!AD32*10^12</f>
-        <v>5034602000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD10" s="5">
-        <f>'AEO Table 73'!AE32*10^12</f>
-        <v>5032873000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE10" s="5">
-        <f>'AEO Table 73'!AF32*10^12</f>
-        <v>5030945000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF10" s="5">
-        <f>'AEO Table 73'!AG32*10^12</f>
-        <v>5028548000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG10" s="5">
-        <f>'AEO Table 73'!AH32*10^12</f>
-        <v>5025918000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH10" s="5">
-        <f>'AEO Table 73'!AI32*10^12</f>
-        <v>5023038000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI10" s="5">
-        <f>'AEO Table 73'!AJ32*10^12</f>
-        <v>5023036000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B11" s="5">
-        <f>'AEO Table 73'!C19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C11" s="5">
-        <f>'AEO Table 73'!D19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D11" s="5">
-        <f>'AEO Table 73'!E19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E11" s="5">
-        <f>'AEO Table 73'!F19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F11" s="5">
-        <f>'AEO Table 73'!G19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G11" s="5">
-        <f>'AEO Table 73'!H19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H11" s="5">
-        <f>'AEO Table 73'!I19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I11" s="5">
-        <f>'AEO Table 73'!J19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J11" s="5">
-        <f>'AEO Table 73'!K19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K11" s="5">
-        <f>'AEO Table 73'!L19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L11" s="5">
-        <f>'AEO Table 73'!M19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M11" s="5">
-        <f>'AEO Table 73'!N19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N11" s="5">
-        <f>'AEO Table 73'!O19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O11" s="5">
-        <f>'AEO Table 73'!P19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P11" s="5">
-        <f>'AEO Table 73'!Q19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q11" s="5">
-        <f>'AEO Table 73'!R19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R11" s="5">
-        <f>'AEO Table 73'!S19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S11" s="5">
-        <f>'AEO Table 73'!T19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T11" s="5">
-        <f>'AEO Table 73'!U19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U11" s="5">
-        <f>'AEO Table 73'!V19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V11" s="5">
-        <f>'AEO Table 73'!W19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W11" s="5">
-        <f>'AEO Table 73'!X19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X11" s="5">
-        <f>'AEO Table 73'!Y19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y11" s="5">
-        <f>'AEO Table 73'!Z19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z11" s="5">
-        <f>'AEO Table 73'!AA19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA11" s="5">
-        <f>'AEO Table 73'!AB19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB11" s="5">
-        <f>'AEO Table 73'!AC19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC11" s="5">
-        <f>'AEO Table 73'!AD19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD11" s="5">
-        <f>'AEO Table 73'!AE19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE11" s="5">
-        <f>'AEO Table 73'!AF19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF11" s="5">
-        <f>'AEO Table 73'!AG19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG11" s="5">
-        <f>'AEO Table 73'!AH19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH11" s="5">
-        <f>'AEO Table 73'!AI19*10^12</f>
-        <v>5825000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI11" s="5">
-        <f>'AEO Table 73'!AJ19*10^12</f>
-        <v>5825000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B12" s="5">
-        <f>'AEO Table 73'!C29*10^12</f>
-        <v>3997220000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C12" s="5">
-        <f>'AEO Table 73'!D29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D12" s="5">
-        <f>'AEO Table 73'!E29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E12" s="5">
-        <f>'AEO Table 73'!F29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F12" s="5">
-        <f>'AEO Table 73'!G29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G12" s="5">
-        <f>'AEO Table 73'!H29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H12" s="5">
-        <f>'AEO Table 73'!I29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I12" s="5">
-        <f>'AEO Table 73'!J29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J12" s="5">
-        <f>'AEO Table 73'!K29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K12" s="5">
-        <f>'AEO Table 73'!L29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L12" s="5">
-        <f>'AEO Table 73'!M29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M12" s="5">
-        <f>'AEO Table 73'!N29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N12" s="5">
-        <f>'AEO Table 73'!O29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O12" s="5">
-        <f>'AEO Table 73'!P29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P12" s="5">
-        <f>'AEO Table 73'!Q29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q12" s="5">
-        <f>'AEO Table 73'!R29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R12" s="5">
-        <f>'AEO Table 73'!S29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S12" s="5">
-        <f>'AEO Table 73'!T29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T12" s="5">
-        <f>'AEO Table 73'!U29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U12" s="5">
-        <f>'AEO Table 73'!V29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V12" s="5">
-        <f>'AEO Table 73'!W29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W12" s="5">
-        <f>'AEO Table 73'!X29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X12" s="5">
-        <f>'AEO Table 73'!Y29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y12" s="5">
-        <f>'AEO Table 73'!Z29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z12" s="5">
-        <f>'AEO Table 73'!AA29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA12" s="5">
-        <f>'AEO Table 73'!AB29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB12" s="5">
-        <f>'AEO Table 73'!AC29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC12" s="5">
-        <f>'AEO Table 73'!AD29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD12" s="5">
-        <f>'AEO Table 73'!AE29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE12" s="5">
-        <f>'AEO Table 73'!AF29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF12" s="5">
-        <f>'AEO Table 73'!AG29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG12" s="5">
-        <f>'AEO Table 73'!AH29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH12" s="5">
-        <f>'AEO Table 73'!AI29*10^12</f>
-        <v>3989233000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI12" s="5">
-        <f>'AEO Table 73'!AJ29*10^12</f>
-        <v>3989233000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B13" s="5">
-        <f>'AEO Table 73'!C18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C13" s="5">
-        <f>'AEO Table 73'!D18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D13" s="5">
-        <f>'AEO Table 73'!E18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E13" s="5">
-        <f>'AEO Table 73'!F18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F13" s="5">
-        <f>'AEO Table 73'!G18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G13" s="5">
-        <f>'AEO Table 73'!H18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H13" s="5">
-        <f>'AEO Table 73'!I18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I13" s="5">
-        <f>'AEO Table 73'!J18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J13" s="5">
-        <f>'AEO Table 73'!K18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K13" s="5">
-        <f>'AEO Table 73'!L18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L13" s="5">
-        <f>'AEO Table 73'!M18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M13" s="5">
-        <f>'AEO Table 73'!N18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N13" s="5">
-        <f>'AEO Table 73'!O18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O13" s="5">
-        <f>'AEO Table 73'!P18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P13" s="5">
-        <f>'AEO Table 73'!Q18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q13" s="5">
-        <f>'AEO Table 73'!R18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R13" s="5">
-        <f>'AEO Table 73'!S18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S13" s="5">
-        <f>'AEO Table 73'!T18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T13" s="5">
-        <f>'AEO Table 73'!U18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U13" s="5">
-        <f>'AEO Table 73'!V18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V13" s="5">
-        <f>'AEO Table 73'!W18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W13" s="5">
-        <f>'AEO Table 73'!X18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X13" s="5">
-        <f>'AEO Table 73'!Y18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y13" s="5">
-        <f>'AEO Table 73'!Z18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z13" s="5">
-        <f>'AEO Table 73'!AA18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA13" s="5">
-        <f>'AEO Table 73'!AB18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB13" s="5">
-        <f>'AEO Table 73'!AC18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC13" s="5">
-        <f>'AEO Table 73'!AD18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD13" s="5">
-        <f>'AEO Table 73'!AE18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE13" s="5">
-        <f>'AEO Table 73'!AF18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF13" s="5">
-        <f>'AEO Table 73'!AG18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG13" s="5">
-        <f>'AEO Table 73'!AH18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH13" s="5">
-        <f>'AEO Table 73'!AI18*10^12</f>
-        <v>5359000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI13" s="5">
-        <f>'AEO Table 73'!AJ18*10^12</f>
-        <v>5359000000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="5">
-        <f>'AEO Table 73'!C30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="C14" s="5">
-        <f>'AEO Table 73'!D30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="D14" s="5">
-        <f>'AEO Table 73'!E30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="E14" s="5">
-        <f>'AEO Table 73'!F30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="F14" s="5">
-        <f>'AEO Table 73'!G30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="G14" s="5">
-        <f>'AEO Table 73'!H30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="H14" s="5">
-        <f>'AEO Table 73'!I30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="I14" s="5">
-        <f>'AEO Table 73'!J30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="J14" s="5">
-        <f>'AEO Table 73'!K30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="K14" s="5">
-        <f>'AEO Table 73'!L30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="L14" s="5">
-        <f>'AEO Table 73'!M30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="M14" s="5">
-        <f>'AEO Table 73'!N30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="N14" s="5">
-        <f>'AEO Table 73'!O30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="O14" s="5">
-        <f>'AEO Table 73'!P30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="P14" s="5">
-        <f>'AEO Table 73'!Q30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Q14" s="5">
-        <f>'AEO Table 73'!R30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="R14" s="5">
-        <f>'AEO Table 73'!S30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="S14" s="5">
-        <f>'AEO Table 73'!T30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="T14" s="5">
-        <f>'AEO Table 73'!U30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="U14" s="5">
-        <f>'AEO Table 73'!V30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="V14" s="5">
-        <f>'AEO Table 73'!W30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="W14" s="5">
-        <f>'AEO Table 73'!X30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="X14" s="5">
-        <f>'AEO Table 73'!Y30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Y14" s="5">
-        <f>'AEO Table 73'!Z30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="Z14" s="5">
-        <f>'AEO Table 73'!AA30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AA14" s="5">
-        <f>'AEO Table 73'!AB30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AB14" s="5">
-        <f>'AEO Table 73'!AC30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AC14" s="5">
-        <f>'AEO Table 73'!AD30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AD14" s="5">
-        <f>'AEO Table 73'!AE30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AE14" s="5">
-        <f>'AEO Table 73'!AF30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AF14" s="5">
-        <f>'AEO Table 73'!AG30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AG14" s="5">
-        <f>'AEO Table 73'!AH30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AH14" s="5">
-        <f>'AEO Table 73'!AI30*10^12</f>
-        <v>5670000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
       </c>
       <c r="AI14" s="5">
-        <f>'AEO Table 73'!AJ30*10^12</f>
-        <v>5670000000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="C15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="D15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="E15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="F15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="G15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="H15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="I15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="J15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="K15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="L15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="M15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="N15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="O15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="P15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Q15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="R15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="S15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="T15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="U15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="V15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="W15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="X15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Y15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Z15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AA15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AB15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AC15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AD15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AE15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AF15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AG15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AH15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AI15" s="5">
-        <f>About!$A$64*10^6</f>
+        <f>About!$A$67*10^6</f>
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -17947,7 +18022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -18088,291 +18163,291 @@
         <v>12992301971719.6</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="C18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="D18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="E18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="F18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="G18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="H18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="I18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="J18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="K18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="L18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="M18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="N18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="O18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="P18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="R18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="S18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="T18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="U18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="V18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="W18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="X18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Z18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AA18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AE18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AF18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AG18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AH18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AI18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^12</f>
-        <v>5723000000000</v>
-      </c>
-      <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^12</f>
-        <v>5719936000000</v>
-      </c>
-      <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^12</f>
-        <v>5709374000000</v>
-      </c>
-      <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^12</f>
-        <v>5702021000000</v>
-      </c>
-      <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^12</f>
-        <v>5699036000000</v>
-      </c>
-      <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^12</f>
-        <v>5702903000000</v>
-      </c>
-      <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^12</f>
-        <v>5701469000000</v>
-      </c>
-      <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^12</f>
-        <v>5697845000000</v>
-      </c>
-      <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^12</f>
-        <v>5696569000000</v>
-      </c>
-      <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^12</f>
-        <v>5695571000000</v>
-      </c>
-      <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^12</f>
-        <v>5691691000000</v>
-      </c>
-      <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^12</f>
-        <v>5689583000000</v>
-      </c>
-      <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^12</f>
-        <v>5687317000000</v>
-      </c>
-      <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^12</f>
-        <v>5686403000000</v>
-      </c>
-      <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^12</f>
-        <v>5685931000000</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^12</f>
-        <v>5686055000000</v>
-      </c>
-      <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^12</f>
-        <v>5686259000000</v>
-      </c>
-      <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^12</f>
-        <v>5685382000000</v>
-      </c>
-      <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^12</f>
-        <v>5685214000000</v>
-      </c>
-      <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^12</f>
-        <v>5685896000000</v>
-      </c>
-      <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^12</f>
-        <v>5686885000000</v>
-      </c>
-      <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^12</f>
-        <v>5687922000000</v>
-      </c>
-      <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^12</f>
-        <v>5690170000000</v>
-      </c>
-      <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^12</f>
-        <v>5690964000000</v>
-      </c>
-      <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^12</f>
-        <v>5689439000000</v>
-      </c>
-      <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^12</f>
-        <v>5688754000000</v>
-      </c>
-      <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^12</f>
-        <v>5686469000000</v>
-      </c>
-      <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^12</f>
-        <v>5684444000000</v>
-      </c>
-      <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^12</f>
-        <v>5683516000000</v>
-      </c>
-      <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^12</f>
-        <v>5682888000000</v>
-      </c>
-      <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^12</f>
-        <v>5681393000000</v>
-      </c>
-      <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^12</f>
-        <v>5679274000000</v>
-      </c>
-      <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^12</f>
-        <v>5678185000000</v>
-      </c>
-      <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^12</f>
-        <v>5676202000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="C19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="D19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="E19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="F19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="G19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="H19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="I19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="J19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="K19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="L19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="M19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="N19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="O19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="P19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="R19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="S19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="T19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="U19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="V19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="W19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="X19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Y19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="Z19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AE19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AF19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AG19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AH19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+      <c r="AI19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
+        <v>5810700000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>369</v>
-      </c>
-      <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-      <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^12</f>
-        <v>6287000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>370</v>
       </c>
       <c r="B20" s="6">
         <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
@@ -18511,9 +18586,9 @@
         <v>91410000000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="5">
         <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
@@ -18652,9 +18727,9 @@
         <v>13583444584264.561</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="207">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
@@ -18799,26 +18874,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="U10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="2"/>
+    <col min="36" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B1" s="5">
         <v>2017</v>
@@ -18923,148 +18998,148 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="C2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="D2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="E2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="F2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="G2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="H2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="I2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="J2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="K2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="L2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="M2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="N2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="O2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="P2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Q2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="R2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="S2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="T2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="U2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="V2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="W2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="X2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Y2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Z2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AA2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AB2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AC2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AD2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AE2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AF2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AG2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AH2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AI2" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>323</v>
       </c>
@@ -19205,7 +19280,7 @@
         <v>19887484</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>324</v>
       </c>
@@ -19346,9 +19421,9 @@
         <v>1036999.9999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:AI5" si="0">10^6</f>
@@ -19487,224 +19562,224 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -19808,7 +19883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
@@ -19949,7 +20024,7 @@
         <v>17906000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -20090,7 +20165,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -20231,7 +20306,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -20372,7 +20447,7 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -20513,9 +20588,9 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="5">
         <f>'AEO Table 73'!C30*10^6/gal_per_barrel</f>
@@ -20654,150 +20729,150 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="C15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="D15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="E15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="F15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="G15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="H15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="I15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="J15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="K15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="L15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="M15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="N15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="O15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="P15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Q15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="R15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="S15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="T15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="U15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="V15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="W15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="X15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Y15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="Z15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AA15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AB15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AC15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AD15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AE15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AF15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AG15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AH15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
       <c r="AI15" s="5">
-        <f>About!$A$64</f>
+        <f>About!$A$67</f>
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -20902,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
@@ -21043,291 +21118,291 @@
         <v>12992301.9717196</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="C18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="D18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="E18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="F18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="G18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="H18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="I18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="J18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="K18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="L18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="M18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="N18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="O18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="P18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="R18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="S18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="T18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="U18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="V18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="W18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="X18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Z18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AA18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AE18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AF18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AG18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AH18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AI18" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="5">
-        <f>'AEO Table 73'!C48*10^6</f>
-        <v>5723000</v>
-      </c>
-      <c r="C18" s="5">
-        <f>'AEO Table 73'!D48*10^6</f>
-        <v>5719936</v>
-      </c>
-      <c r="D18" s="5">
-        <f>'AEO Table 73'!E48*10^6</f>
-        <v>5709374</v>
-      </c>
-      <c r="E18" s="5">
-        <f>'AEO Table 73'!F48*10^6</f>
-        <v>5702021</v>
-      </c>
-      <c r="F18" s="5">
-        <f>'AEO Table 73'!G48*10^6</f>
-        <v>5699036</v>
-      </c>
-      <c r="G18" s="5">
-        <f>'AEO Table 73'!H48*10^6</f>
-        <v>5702903</v>
-      </c>
-      <c r="H18" s="5">
-        <f>'AEO Table 73'!I48*10^6</f>
-        <v>5701469</v>
-      </c>
-      <c r="I18" s="5">
-        <f>'AEO Table 73'!J48*10^6</f>
-        <v>5697845</v>
-      </c>
-      <c r="J18" s="5">
-        <f>'AEO Table 73'!K48*10^6</f>
-        <v>5696569</v>
-      </c>
-      <c r="K18" s="5">
-        <f>'AEO Table 73'!L48*10^6</f>
-        <v>5695571</v>
-      </c>
-      <c r="L18" s="5">
-        <f>'AEO Table 73'!M48*10^6</f>
-        <v>5691691</v>
-      </c>
-      <c r="M18" s="5">
-        <f>'AEO Table 73'!N48*10^6</f>
-        <v>5689583</v>
-      </c>
-      <c r="N18" s="5">
-        <f>'AEO Table 73'!O48*10^6</f>
-        <v>5687317</v>
-      </c>
-      <c r="O18" s="5">
-        <f>'AEO Table 73'!P48*10^6</f>
-        <v>5686403</v>
-      </c>
-      <c r="P18" s="5">
-        <f>'AEO Table 73'!Q48*10^6</f>
-        <v>5685931</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>'AEO Table 73'!R48*10^6</f>
-        <v>5686055</v>
-      </c>
-      <c r="R18" s="5">
-        <f>'AEO Table 73'!S48*10^6</f>
-        <v>5686259</v>
-      </c>
-      <c r="S18" s="5">
-        <f>'AEO Table 73'!T48*10^6</f>
-        <v>5685382</v>
-      </c>
-      <c r="T18" s="5">
-        <f>'AEO Table 73'!U48*10^6</f>
-        <v>5685214</v>
-      </c>
-      <c r="U18" s="5">
-        <f>'AEO Table 73'!V48*10^6</f>
-        <v>5685896</v>
-      </c>
-      <c r="V18" s="5">
-        <f>'AEO Table 73'!W48*10^6</f>
-        <v>5686885</v>
-      </c>
-      <c r="W18" s="5">
-        <f>'AEO Table 73'!X48*10^6</f>
-        <v>5687922</v>
-      </c>
-      <c r="X18" s="5">
-        <f>'AEO Table 73'!Y48*10^6</f>
-        <v>5690170</v>
-      </c>
-      <c r="Y18" s="5">
-        <f>'AEO Table 73'!Z48*10^6</f>
-        <v>5690964</v>
-      </c>
-      <c r="Z18" s="5">
-        <f>'AEO Table 73'!AA48*10^6</f>
-        <v>5689439</v>
-      </c>
-      <c r="AA18" s="5">
-        <f>'AEO Table 73'!AB48*10^6</f>
-        <v>5688754</v>
-      </c>
-      <c r="AB18" s="5">
-        <f>'AEO Table 73'!AC48*10^6</f>
-        <v>5686469</v>
-      </c>
-      <c r="AC18" s="5">
-        <f>'AEO Table 73'!AD48*10^6</f>
-        <v>5684444</v>
-      </c>
-      <c r="AD18" s="5">
-        <f>'AEO Table 73'!AE48*10^6</f>
-        <v>5683516</v>
-      </c>
-      <c r="AE18" s="5">
-        <f>'AEO Table 73'!AF48*10^6</f>
-        <v>5682888</v>
-      </c>
-      <c r="AF18" s="5">
-        <f>'AEO Table 73'!AG48*10^6</f>
-        <v>5681393</v>
-      </c>
-      <c r="AG18" s="5">
-        <f>'AEO Table 73'!AH48*10^6</f>
-        <v>5679274</v>
-      </c>
-      <c r="AH18" s="5">
-        <f>'AEO Table 73'!AI48*10^6</f>
-        <v>5678185</v>
-      </c>
-      <c r="AI18" s="5">
-        <f>'AEO Table 73'!AJ48*10^6</f>
-        <v>5676202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="C19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="D19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="E19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="F19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="G19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="H19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="I19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="J19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="K19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="L19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="M19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="N19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="O19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="P19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="R19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="S19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="T19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="U19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="V19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="W19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="X19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Y19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="Z19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AE19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AF19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AG19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AH19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+      <c r="AI19" s="5">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
+        <v>5810700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B19" s="5">
-        <f>'AEO Table 73'!C41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="C19" s="5">
-        <f>'AEO Table 73'!D41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="D19" s="5">
-        <f>'AEO Table 73'!E41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="E19" s="5">
-        <f>'AEO Table 73'!F41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="F19" s="5">
-        <f>'AEO Table 73'!G41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="G19" s="5">
-        <f>'AEO Table 73'!H41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="H19" s="5">
-        <f>'AEO Table 73'!I41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="I19" s="5">
-        <f>'AEO Table 73'!J41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="J19" s="5">
-        <f>'AEO Table 73'!K41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="K19" s="5">
-        <f>'AEO Table 73'!L41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="L19" s="5">
-        <f>'AEO Table 73'!M41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="M19" s="5">
-        <f>'AEO Table 73'!N41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="N19" s="5">
-        <f>'AEO Table 73'!O41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="O19" s="5">
-        <f>'AEO Table 73'!P41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="P19" s="5">
-        <f>'AEO Table 73'!Q41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>'AEO Table 73'!R41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="R19" s="5">
-        <f>'AEO Table 73'!S41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="S19" s="5">
-        <f>'AEO Table 73'!T41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="T19" s="5">
-        <f>'AEO Table 73'!U41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="U19" s="5">
-        <f>'AEO Table 73'!V41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="V19" s="5">
-        <f>'AEO Table 73'!W41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="W19" s="5">
-        <f>'AEO Table 73'!X41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="X19" s="5">
-        <f>'AEO Table 73'!Y41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="Y19" s="5">
-        <f>'AEO Table 73'!Z41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="Z19" s="5">
-        <f>'AEO Table 73'!AA41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AA19" s="5">
-        <f>'AEO Table 73'!AB41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AB19" s="5">
-        <f>'AEO Table 73'!AC41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AC19" s="5">
-        <f>'AEO Table 73'!AD41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AD19" s="5">
-        <f>'AEO Table 73'!AE41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AE19" s="5">
-        <f>'AEO Table 73'!AF41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AF19" s="5">
-        <f>'AEO Table 73'!AG41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AG19" s="5">
-        <f>'AEO Table 73'!AH41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AH19" s="5">
-        <f>'AEO Table 73'!AI41*10^6</f>
-        <v>6287000</v>
-      </c>
-      <c r="AI19" s="5">
-        <f>'AEO Table 73'!AJ41*10^6</f>
-        <v>6287000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="B20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
@@ -21466,9 +21541,9 @@
         <v>91410</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B21" s="5">
         <f>'GREET1 Fuel_Specs'!$D$90</f>
@@ -21607,9 +21682,9 @@
         <v>13583444.58426456</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="5">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^3</f>
@@ -21754,23 +21829,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.265625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2">
         <v>2017</v>
@@ -21875,7 +21952,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -21982,7 +22059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22089,7 +22166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -22230,7 +22307,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -22371,7 +22448,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22478,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22585,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -22726,9 +22803,9 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -22833,9 +22910,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -22940,9 +23017,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -23053,7 +23130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23061,14 +23138,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>299</v>
       </c>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AR/web-app/BCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/aaggarwal/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state_3.3/web-app/bcf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E80EF06-8DBE-2E4A-BF88-2006F91B5F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76952F9-3660-0F42-932E-7660B4B2CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="424">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2462,9 +2462,6 @@
   </si>
   <si>
     <t>barrels of oil</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
   </si>
 </sst>
 </file>
@@ -4339,9 +4336,6 @@
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B1" t="s">
-        <v>424</v>
-      </c>
       <c r="C1" s="208">
         <v>44631</v>
       </c>
